--- a/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2937,7 +2937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>155</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>160</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>165</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>213</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>223</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>240</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>253</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>271</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>343</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>351</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>357</v>
       </c>
@@ -8843,12 +8843,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN61">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-radiotherapy-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
